--- a/世燁老師這邊的報告/研究發想/2.0.1/引用2.xlsx
+++ b/世燁老師這邊的報告/研究發想/2.0.1/引用2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\obsidian-academic-research\世燁老師這邊的報告\研究發想\2.0.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenweicheng/github/obsidian-academic-research/世燁老師這邊的報告/研究發想/2.0.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F187854-0005-4543-97D7-F019A58FC912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316DFED6-6132-104F-B8B2-F489AA09C873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1920" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="1920" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="127">
   <si>
     <r>
       <t>Chai, C. S., Rahmawati, Y., &amp; Jong, M. S. Y. (2020). Indonesian science, mathematics, and engineering preservice teachers’ experiences in STEM-TPACK design-based learning. </t>
@@ -3834,6 +3834,39 @@
   </si>
   <si>
     <t>NBC News. (2023). ChatGPT ban dropped by New York City public schools. Retrieved from https://www.nbcnews.com/tech/chatgpt-ban-dropped-new-york-city-public-schools-rcna85089</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寫PLS引用的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Hair Jr, J. F., Hult, G. T. M., Ringle, C. M., Sarstedt, M., Danks, N. P., &amp; Ray, S. (2021). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Partial least squares structural equation modeling (PLS-SEM) using R: A workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (p. 197). Springer Nature.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Santosa, P. I. (2018). Metode penelitian kuantitatif: Pengembangan hipotesis dan pengujiannya menggunakan SmartPLS.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3841,7 +3874,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3881,6 +3914,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3905,13 +3951,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4194,751 +4240,731 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="L101" sqref="L101"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="138" workbookViewId="0">
+      <selection activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="150" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H150" s="4"/>
-    </row>
-    <row r="151" spans="4:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="D151" s="3"/>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="17">
+      <c r="A145" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="17">
+      <c r="A146" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="1:8" ht="23">
+      <c r="D151" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
